--- a/results_method1_and_2/chartbars/pitch_profile_all.xlsx
+++ b/results_method1_and_2/chartbars/pitch_profile_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method1_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="8_{33400725-5938-4462-A363-F7FCECB7DC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9680C5E1-86A5-493A-AEA5-81278D4AF41D}"/>
+  <xr:revisionPtr revIDLastSave="396" documentId="8_{33400725-5938-4462-A363-F7FCECB7DC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C41BF209-A011-4CDE-AA13-58446C36428B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classical_approach" sheetId="1" r:id="rId1"/>
@@ -699,48 +699,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Έμφαση1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Έμφαση6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Έμφαση6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Έμφαση6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Εισαγωγή" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Έλεγχος κελιού" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Έμφαση1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Έμφαση2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Έμφαση3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Έμφαση4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Έμφαση5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Έμφαση6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Έξοδος" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Επεξηγηματικό κείμενο" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Επικεφαλίδα 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Επικεφαλίδα 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Επικεφαλίδα 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Επικεφαλίδα 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Κακό" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Καλό" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
-    <cellStyle name="Ουδέτερο" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Προειδοποιητικό κείμενο" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Σημείωση" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Συνδεδεμένο κελί" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Σύνολο" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Τίτλος" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Υπολογισμός" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -758,7 +758,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1416,7 +1416,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2057,7 +2057,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2704,7 +2704,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2862,40 +2862,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>9.0909090909090898E-4</c:v>
+                  <c:v>9.0826521344232502E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0909090909090898E-4</c:v>
+                  <c:v>9.0826521344232502E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6363636363636299E-3</c:v>
+                  <c:v>3.6330608537693001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.72727272727272E-2</c:v>
+                  <c:v>1.72570390554041E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6363636363636301E-2</c:v>
+                  <c:v>2.6339691189827399E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7272727272727205E-2</c:v>
+                  <c:v>9.9000908265213405E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.147272727272727</c:v>
+                  <c:v>0.14623069936421401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28636363636363599</c:v>
+                  <c:v>0.28610354223433199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15909090909090901</c:v>
+                  <c:v>0.158946412352406</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18272727272727199</c:v>
+                  <c:v>0.182561307901907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.5454545454545404E-2</c:v>
+                  <c:v>6.5395095367847406E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.27272727272727E-2</c:v>
+                  <c:v>1.2715712988192501E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2998,28 +2998,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6246390760346395E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8498556304138501E-3</c:v>
+                  <c:v>1.9249278152069201E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1222329162656403E-2</c:v>
+                  <c:v>6.4485081809432104E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0471607314725699E-2</c:v>
+                  <c:v>8.5659287776708296E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22521655437921001</c:v>
+                  <c:v>0.22425409047160699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15014436958614</c:v>
+                  <c:v>0.152069297401347</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.213666987487969</c:v>
+                  <c:v>0.22232916265639999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.17516843118382999</c:v>
+                  <c:v>0.17998075072184699</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.1010587102983597E-2</c:v>
@@ -3125,34 +3125,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7412587412587402E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6223776223776199E-3</c:v>
+                  <c:v>1.74825174825174E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3811188811188801E-2</c:v>
+                  <c:v>5.8566433566433498E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0034965034964998E-2</c:v>
+                  <c:v>8.6538461538461495E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.269230769230769</c:v>
+                  <c:v>0.267482517482517</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.187937062937062</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22727272727272699</c:v>
+                  <c:v>0.233391608391608</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12849650349650299</c:v>
+                  <c:v>0.13199300699300701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.44755244755244E-2</c:v>
+                  <c:v>2.62237762237762E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2447552447552398E-3</c:v>
+                  <c:v>6.1188811188811103E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3369,7 +3369,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3962,7 +3962,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4609,7 +4609,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5220,7 +5220,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5831,7 +5831,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6442,7 +6442,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7107,7 +7107,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13957,7 +13957,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14255,8 +14255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY71"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:Q13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q11" sqref="E11:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14507,40 +14507,40 @@
         <v>14</v>
       </c>
       <c r="E11" s="5">
-        <v>9.0909090909090898E-4</v>
+        <v>9.0826521344232502E-4</v>
       </c>
       <c r="F11" s="5">
-        <v>9.0909090909090898E-4</v>
+        <v>9.0826521344232502E-4</v>
       </c>
       <c r="G11" s="5">
-        <v>3.6363636363636299E-3</v>
+        <v>3.6330608537693001E-3</v>
       </c>
       <c r="H11" s="5">
-        <v>1.72727272727272E-2</v>
+        <v>1.72570390554041E-2</v>
       </c>
       <c r="I11" s="5">
-        <v>2.6363636363636301E-2</v>
+        <v>2.6339691189827399E-2</v>
       </c>
       <c r="J11" s="5">
-        <v>9.7272727272727205E-2</v>
+        <v>9.9000908265213405E-2</v>
       </c>
       <c r="K11" s="5">
-        <v>0.147272727272727</v>
+        <v>0.14623069936421401</v>
       </c>
       <c r="L11" s="5">
-        <v>0.28636363636363599</v>
+        <v>0.28610354223433199</v>
       </c>
       <c r="M11" s="5">
-        <v>0.15909090909090901</v>
+        <v>0.158946412352406</v>
       </c>
       <c r="N11" s="5">
-        <v>0.18272727272727199</v>
+        <v>0.182561307901907</v>
       </c>
       <c r="O11" s="5">
-        <v>6.5454545454545404E-2</v>
+        <v>6.5395095367847406E-2</v>
       </c>
       <c r="P11" s="5">
-        <v>1.27272727272727E-2</v>
+        <v>1.2715712988192501E-2</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
@@ -14560,28 +14560,28 @@
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <v>9.6246390760346395E-4</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5">
-        <v>3.8498556304138501E-3</v>
+        <v>1.9249278152069201E-3</v>
       </c>
       <c r="J12" s="5">
-        <v>7.1222329162656403E-2</v>
+        <v>6.4485081809432104E-2</v>
       </c>
       <c r="K12" s="5">
-        <v>9.0471607314725699E-2</v>
+        <v>8.5659287776708296E-2</v>
       </c>
       <c r="L12" s="5">
-        <v>0.22521655437921001</v>
+        <v>0.22425409047160699</v>
       </c>
       <c r="M12" s="5">
-        <v>0.15014436958614</v>
+        <v>0.152069297401347</v>
       </c>
       <c r="N12" s="5">
-        <v>0.213666987487969</v>
+        <v>0.22232916265639999</v>
       </c>
       <c r="O12" s="5">
-        <v>0.17516843118382999</v>
+        <v>0.17998075072184699</v>
       </c>
       <c r="P12" s="5">
         <v>5.1010587102983597E-2</v>
@@ -14604,34 +14604,34 @@
         <v>0</v>
       </c>
       <c r="H13" s="5">
-        <v>8.7412587412587402E-4</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
-        <v>2.6223776223776199E-3</v>
+        <v>1.74825174825174E-3</v>
       </c>
       <c r="J13" s="5">
-        <v>6.3811188811188801E-2</v>
+        <v>5.8566433566433498E-2</v>
       </c>
       <c r="K13" s="5">
-        <v>9.0034965034964998E-2</v>
+        <v>8.6538461538461495E-2</v>
       </c>
       <c r="L13" s="5">
-        <v>0.269230769230769</v>
+        <v>0.267482517482517</v>
       </c>
       <c r="M13" s="5">
         <v>0.187937062937062</v>
       </c>
       <c r="N13" s="5">
-        <v>0.22727272727272699</v>
+        <v>0.233391608391608</v>
       </c>
       <c r="O13" s="5">
-        <v>0.12849650349650299</v>
+        <v>0.13199300699300701</v>
       </c>
       <c r="P13" s="5">
-        <v>2.44755244755244E-2</v>
+        <v>2.62237762237762E-2</v>
       </c>
       <c r="Q13" s="5">
-        <v>5.2447552447552398E-3</v>
+        <v>6.1188811188811103E-3</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
@@ -15885,6 +15885,114 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E11:Q13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:S21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:R29">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:O37">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:P45">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:N53">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59:S61">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:P71">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:R5">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:R21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -15896,116 +16004,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:S21">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:R29">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:O37">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:P45">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:N53">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59:S61">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70:P71">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:R5">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:R21">
+  <conditionalFormatting sqref="AN29:AY31">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN29:AY31">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16027,7 +16027,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="A1:N4"/>
+      <selection activeCell="B2" sqref="B2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16084,40 +16084,40 @@
         <v>14</v>
       </c>
       <c r="B2" s="5">
-        <v>9.0909090909090898E-4</v>
+        <v>9.0826521344232502E-4</v>
       </c>
       <c r="C2" s="5">
-        <v>9.0909090909090898E-4</v>
+        <v>9.0826521344232502E-4</v>
       </c>
       <c r="D2" s="5">
-        <v>3.6363636363636299E-3</v>
+        <v>3.6330608537693001E-3</v>
       </c>
       <c r="E2" s="5">
-        <v>1.72727272727272E-2</v>
+        <v>1.72570390554041E-2</v>
       </c>
       <c r="F2" s="5">
-        <v>2.6363636363636301E-2</v>
+        <v>2.6339691189827399E-2</v>
       </c>
       <c r="G2" s="5">
-        <v>9.7272727272727205E-2</v>
+        <v>9.9000908265213405E-2</v>
       </c>
       <c r="H2" s="5">
-        <v>0.147272727272727</v>
+        <v>0.14623069936421401</v>
       </c>
       <c r="I2" s="5">
-        <v>0.28636363636363599</v>
+        <v>0.28610354223433199</v>
       </c>
       <c r="J2" s="5">
-        <v>0.15909090909090901</v>
+        <v>0.158946412352406</v>
       </c>
       <c r="K2" s="5">
-        <v>0.18272727272727199</v>
+        <v>0.182561307901907</v>
       </c>
       <c r="L2" s="5">
-        <v>6.5454545454545404E-2</v>
+        <v>6.5395095367847406E-2</v>
       </c>
       <c r="M2" s="5">
-        <v>1.27272727272727E-2</v>
+        <v>1.2715712988192501E-2</v>
       </c>
       <c r="N2" s="5">
         <v>0</v>
@@ -16137,28 +16137,28 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>9.6246390760346395E-4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>3.8498556304138501E-3</v>
+        <v>1.9249278152069201E-3</v>
       </c>
       <c r="G3" s="5">
-        <v>7.1222329162656403E-2</v>
+        <v>6.4485081809432104E-2</v>
       </c>
       <c r="H3" s="5">
-        <v>9.0471607314725699E-2</v>
+        <v>8.5659287776708296E-2</v>
       </c>
       <c r="I3" s="5">
-        <v>0.22521655437921001</v>
+        <v>0.22425409047160699</v>
       </c>
       <c r="J3" s="5">
-        <v>0.15014436958614</v>
+        <v>0.152069297401347</v>
       </c>
       <c r="K3" s="5">
-        <v>0.213666987487969</v>
+        <v>0.22232916265639999</v>
       </c>
       <c r="L3" s="5">
-        <v>0.17516843118382999</v>
+        <v>0.17998075072184699</v>
       </c>
       <c r="M3" s="5">
         <v>5.1010587102983597E-2</v>
@@ -16181,38 +16181,50 @@
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>8.7412587412587402E-4</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>2.6223776223776199E-3</v>
+        <v>1.74825174825174E-3</v>
       </c>
       <c r="G4" s="5">
-        <v>6.3811188811188801E-2</v>
+        <v>5.8566433566433498E-2</v>
       </c>
       <c r="H4" s="5">
-        <v>9.0034965034964998E-2</v>
+        <v>8.6538461538461495E-2</v>
       </c>
       <c r="I4" s="5">
-        <v>0.269230769230769</v>
+        <v>0.267482517482517</v>
       </c>
       <c r="J4" s="5">
         <v>0.187937062937062</v>
       </c>
       <c r="K4" s="5">
-        <v>0.22727272727272699</v>
+        <v>0.233391608391608</v>
       </c>
       <c r="L4" s="5">
-        <v>0.12849650349650299</v>
+        <v>0.13199300699300701</v>
       </c>
       <c r="M4" s="5">
-        <v>2.44755244755244E-2</v>
+        <v>2.62237762237762E-2</v>
       </c>
       <c r="N4" s="5">
-        <v>5.2447552447552398E-3</v>
+        <v>6.1188811188811103E-3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:N4">
+  <conditionalFormatting sqref="B3:N4">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:N2">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/results_method1_and_2/chartbars/pitch_profile_all.xlsx
+++ b/results_method1_and_2/chartbars/pitch_profile_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method1_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="396" documentId="8_{33400725-5938-4462-A363-F7FCECB7DC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C41BF209-A011-4CDE-AA13-58446C36428B}"/>
+  <xr:revisionPtr revIDLastSave="448" documentId="8_{33400725-5938-4462-A363-F7FCECB7DC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D3693FC-2762-479F-A11A-830A2BDDADC8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classical_approach" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="31">
   <si>
     <t>group 1</t>
   </si>
@@ -699,48 +699,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Εισαγωγή" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Έλεγχος κελιού" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Έμφαση1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Έμφαση2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Έμφαση3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Έμφαση4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Έμφαση5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Έμφαση6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Έξοδος" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Επεξηγηματικό κείμενο" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Κακό" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Καλό" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Ουδέτερο" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Προειδοποιητικό κείμενο" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Σημείωση" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Συνδεδεμένο κελί" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Σύνολο" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Τίτλος" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Υπολογισμός" xfId="11" builtinId="22" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -758,7 +758,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1416,7 +1416,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2057,7 +2057,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2704,7 +2704,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3369,7 +3369,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3621,19 +3621,19 @@
                   <c:v>9.9108027750247703E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5589692765113897E-2</c:v>
+                  <c:v>4.6580773042616402E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.7304261645193204E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.167492566897918</c:v>
+                  <c:v>0.168483647175421</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.243805748265609</c:v>
+                  <c:v>0.242814667988107</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34786917740336898</c:v>
+                  <c:v>0.34687809712586698</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8.0277502477700699E-2</c:v>
@@ -3962,7 +3962,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4609,7 +4609,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5220,7 +5220,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5326,9 +5326,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>classical_approach!$G$42:$P$42</c:f>
+              <c:f>classical_approach!$G$42:$O$42</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>D</c:v>
                 </c:pt>
@@ -5355,19 +5355,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>classical_approach!$G$43:$P$43</c:f>
+              <c:f>classical_approach!$G$43:$O$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.7522935779816501E-2</c:v>
                 </c:pt>
@@ -5393,9 +5390,6 @@
                   <c:v>5.8381984987489503E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5435,9 +5429,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>classical_approach!$G$42:$P$42</c:f>
+              <c:f>classical_approach!$G$42:$O$42</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>D</c:v>
                 </c:pt>
@@ -5464,19 +5458,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>classical_approach!$G$44:$P$44</c:f>
+              <c:f>classical_approach!$G$44:$O$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5.6074766355140096E-3</c:v>
                 </c:pt>
@@ -5502,9 +5493,6 @@
                   <c:v>4.0186915887850401E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5544,9 +5532,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>classical_approach!$G$42:$P$42</c:f>
+              <c:f>classical_approach!$G$42:$O$42</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>D</c:v>
                 </c:pt>
@@ -5573,47 +5561,41 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>classical_approach!$G$45:$P$45</c:f>
+              <c:f>classical_approach!$G$45:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.7198549410698001E-3</c:v>
+                  <c:v>3.6264732547597401E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0661831368993601E-3</c:v>
+                  <c:v>1.08794197642792E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.44786944696282E-2</c:v>
+                  <c:v>2.62919310970081E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22937443336355301</c:v>
+                  <c:v>0.23844061650045301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22393472348141399</c:v>
+                  <c:v>0.232094288304623</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29827742520398898</c:v>
+                  <c:v>0.296464188576609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14777878513145901</c:v>
+                  <c:v>0.14143245693563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6210335448776003E-2</c:v>
+                  <c:v>4.8957388939256503E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3463281958295497E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>1.81323662737987E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -5831,7 +5813,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6442,7 +6424,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7107,7 +7089,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13957,7 +13939,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14255,13 +14237,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q11" sqref="E11:Q11"/>
+    <sheetView topLeftCell="J28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="39" max="39" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="9.140625" customWidth="1"/>
@@ -14722,19 +14704,19 @@
         <v>9.9108027750247703E-4</v>
       </c>
       <c r="K20" s="5">
-        <v>4.5589692765113897E-2</v>
+        <v>4.6580773042616402E-2</v>
       </c>
       <c r="L20" s="5">
         <v>7.7304261645193204E-2</v>
       </c>
       <c r="M20" s="5">
-        <v>0.167492566897918</v>
+        <v>0.168483647175421</v>
       </c>
       <c r="N20" s="5">
-        <v>0.243805748265609</v>
+        <v>0.242814667988107</v>
       </c>
       <c r="O20" s="5">
-        <v>0.34786917740336898</v>
+        <v>0.34687809712586698</v>
       </c>
       <c r="P20" s="5">
         <v>8.0277502477700699E-2</v>
@@ -15162,7 +15144,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="3"/>
@@ -15201,7 +15183,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B36" s="3"/>
@@ -15240,7 +15222,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="3"/>
@@ -15315,9 +15297,7 @@
       <c r="O42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P42" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="P42" s="12"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -15351,9 +15331,7 @@
       <c r="O43" s="5">
         <v>0</v>
       </c>
-      <c r="P43" s="5">
-        <v>0</v>
-      </c>
+      <c r="P43" s="12"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -15387,9 +15365,7 @@
       <c r="O44" s="5">
         <v>0</v>
       </c>
-      <c r="P44" s="5">
-        <v>0</v>
-      </c>
+      <c r="P44" s="12"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -15397,35 +15373,33 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="5">
-        <v>2.7198549410698001E-3</v>
+        <v>3.6264732547597401E-3</v>
       </c>
       <c r="H45" s="5">
-        <v>9.0661831368993601E-3</v>
+        <v>1.08794197642792E-2</v>
       </c>
       <c r="I45" s="5">
-        <v>2.44786944696282E-2</v>
+        <v>2.62919310970081E-2</v>
       </c>
       <c r="J45" s="5">
-        <v>0.22937443336355301</v>
+        <v>0.23844061650045301</v>
       </c>
       <c r="K45" s="5">
-        <v>0.22393472348141399</v>
+        <v>0.232094288304623</v>
       </c>
       <c r="L45" s="5">
-        <v>0.29827742520398898</v>
+        <v>0.296464188576609</v>
       </c>
       <c r="M45" s="5">
-        <v>0.14777878513145901</v>
+        <v>0.14143245693563</v>
       </c>
       <c r="N45" s="5">
-        <v>5.6210335448776003E-2</v>
+        <v>4.8957388939256503E-2</v>
       </c>
       <c r="O45" s="5">
-        <v>6.3463281958295497E-3</v>
-      </c>
-      <c r="P45" s="5">
         <v>1.81323662737987E-3</v>
       </c>
+      <c r="P45" s="12"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -15885,6 +15859,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E11:Q13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:S21">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:R29">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:O37">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:O45">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -15896,56 +15918,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:S21">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:R29">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:O37">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:P45">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E51:N53">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15957,7 +15931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:S61">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15969,6 +15943,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:P71">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:R5">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -15980,20 +15966,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:R5">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J19:R21">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16005,7 +15979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN29:AY31">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16026,8 +16000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC113577-91C9-4AD7-AD47-59B6B18E82E4}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16244,15 +16218,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A84D77E-1459-4B56-825C-D8BC69B6D2C7}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -16322,19 +16299,19 @@
         <v>9.9108027750247703E-4</v>
       </c>
       <c r="C3" s="5">
-        <v>4.5589692765113897E-2</v>
+        <v>4.6580773042616402E-2</v>
       </c>
       <c r="D3" s="5">
         <v>7.7304261645193204E-2</v>
       </c>
       <c r="E3" s="5">
-        <v>0.167492566897918</v>
+        <v>0.168483647175421</v>
       </c>
       <c r="F3" s="5">
-        <v>0.243805748265609</v>
+        <v>0.242814667988107</v>
       </c>
       <c r="G3" s="5">
-        <v>0.34786917740336898</v>
+        <v>0.34687809712586698</v>
       </c>
       <c r="H3" s="5">
         <v>8.0277502477700699E-2</v>
@@ -17002,10 +16979,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8345A5-877D-4884-876B-A760E893B296}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="A1:K4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17014,7 +16991,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -17044,12 +17021,10 @@
       <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5">
@@ -17079,12 +17054,10 @@
       <c r="J2" s="5">
         <v>0</v>
       </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5">
@@ -17114,47 +17087,55 @@
       <c r="J3" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="5">
-        <v>2.7198549410698001E-3</v>
+        <v>3.6264732547597401E-3</v>
       </c>
       <c r="C4" s="5">
-        <v>9.0661831368993601E-3</v>
+        <v>1.08794197642792E-2</v>
       </c>
       <c r="D4" s="5">
-        <v>2.44786944696282E-2</v>
+        <v>2.62919310970081E-2</v>
       </c>
       <c r="E4" s="5">
-        <v>0.22937443336355301</v>
+        <v>0.23844061650045301</v>
       </c>
       <c r="F4" s="5">
-        <v>0.22393472348141399</v>
+        <v>0.232094288304623</v>
       </c>
       <c r="G4" s="5">
-        <v>0.29827742520398898</v>
+        <v>0.296464188576609</v>
       </c>
       <c r="H4" s="5">
-        <v>0.14777878513145901</v>
+        <v>0.14143245693563</v>
       </c>
       <c r="I4" s="5">
-        <v>5.6210335448776003E-2</v>
+        <v>4.8957388939256503E-2</v>
       </c>
       <c r="J4" s="5">
-        <v>6.3463281958295497E-3</v>
-      </c>
-      <c r="K4" s="5">
         <v>1.81323662737987E-3</v>
       </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K4">
+  <conditionalFormatting sqref="B2:J4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
